--- a/SDET2.xlsx
+++ b/SDET2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14940" windowHeight="6420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14070" windowHeight="6420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:P20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Sala</t>
   </si>
@@ -49,15 +49,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Orgname</t>
-  </si>
-  <si>
-    <t>SDET3</t>
-  </si>
-  <si>
-    <t>SDET4</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -110,6 +101,24 @@
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>GOI</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -524,62 +533,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -590,27 +599,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
